--- a/src/constants/categorizedItems.xlsx
+++ b/src/constants/categorizedItems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="585">
   <si>
     <t>name</t>
   </si>
@@ -1729,6 +1729,51 @@
   </si>
   <si>
     <t>Pantry</t>
+  </si>
+  <si>
+    <t>Home &amp; Pets</t>
+  </si>
+  <si>
+    <t>Produce</t>
+  </si>
+  <si>
+    <t>Baking</t>
+  </si>
+  <si>
+    <t>Meat Deli</t>
+  </si>
+  <si>
+    <t>Deli</t>
+  </si>
+  <si>
+    <t>Bakery</t>
+  </si>
+  <si>
+    <t>Dry Goods</t>
+  </si>
+  <si>
+    <t>Beans &amp; Health Foods</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>Fridge</t>
+  </si>
+  <si>
+    <t>Freezer</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>Cereal &amp; Breakfast</t>
+  </si>
+  <si>
+    <t>Entrance</t>
   </si>
 </sst>
 </file>
@@ -2550,15 +2595,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D562"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.90625" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2627,1013 +2672,2690 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D6" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D7" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D8" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>565</v>
+      </c>
+      <c r="D9" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C10" t="s">
+        <v>571</v>
+      </c>
+      <c r="D10" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>572</v>
+      </c>
+      <c r="C11" t="s">
+        <v>569</v>
+      </c>
+      <c r="D11" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>571</v>
+      </c>
+      <c r="C12" t="s">
+        <v>571</v>
+      </c>
+      <c r="D12" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>565</v>
+      </c>
+      <c r="D13" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>571</v>
+      </c>
+      <c r="C14" t="s">
+        <v>571</v>
+      </c>
+      <c r="D14" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="C15" t="s">
+        <v>565</v>
+      </c>
+      <c r="D15" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>565</v>
+      </c>
+      <c r="D16" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>565</v>
+      </c>
+      <c r="D17" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>573</v>
+      </c>
+      <c r="C18" t="s">
+        <v>574</v>
+      </c>
+      <c r="D18" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>575</v>
+      </c>
+      <c r="C19" t="s">
+        <v>575</v>
+      </c>
+      <c r="D19" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>576</v>
+      </c>
+      <c r="C20" t="s">
+        <v>577</v>
+      </c>
+      <c r="D20" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>572</v>
+      </c>
+      <c r="C21" t="s">
+        <v>572</v>
+      </c>
+      <c r="D21" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>572</v>
+      </c>
+      <c r="C22" t="s">
+        <v>572</v>
+      </c>
+      <c r="D22" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>571</v>
+      </c>
+      <c r="C23" t="s">
+        <v>571</v>
+      </c>
+      <c r="D23" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>565</v>
+      </c>
+      <c r="D24" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>571</v>
+      </c>
+      <c r="C25" t="s">
+        <v>571</v>
+      </c>
+      <c r="D25" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>578</v>
+      </c>
+      <c r="C26" t="s">
+        <v>565</v>
+      </c>
+      <c r="D26" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>570</v>
+      </c>
+      <c r="C27" t="s">
+        <v>566</v>
+      </c>
+      <c r="D27" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>566</v>
+      </c>
+      <c r="D28" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>568</v>
+      </c>
+      <c r="C29" t="s">
+        <v>569</v>
+      </c>
+      <c r="D29" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>573</v>
+      </c>
+      <c r="C30" t="s">
+        <v>574</v>
+      </c>
+      <c r="D30" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>579</v>
+      </c>
+      <c r="C31" t="s">
+        <v>580</v>
+      </c>
+      <c r="D31" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>571</v>
+      </c>
+      <c r="C32" t="s">
+        <v>571</v>
+      </c>
+      <c r="D32" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>576</v>
+      </c>
+      <c r="C33" t="s">
+        <v>577</v>
+      </c>
+      <c r="D33" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>571</v>
+      </c>
+      <c r="C34" t="s">
+        <v>571</v>
+      </c>
+      <c r="D34" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>570</v>
+      </c>
+      <c r="C35" t="s">
+        <v>566</v>
+      </c>
+      <c r="D35" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>574</v>
+      </c>
+      <c r="C36" t="s">
+        <v>574</v>
+      </c>
+      <c r="D36" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>571</v>
+      </c>
+      <c r="C37" t="s">
+        <v>571</v>
+      </c>
+      <c r="D37" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>569</v>
+      </c>
+      <c r="D38" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>575</v>
+      </c>
+      <c r="C39" t="s">
+        <v>575</v>
+      </c>
+      <c r="D39" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>572</v>
+      </c>
+      <c r="C40" t="s">
+        <v>569</v>
+      </c>
+      <c r="D40" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>571</v>
+      </c>
+      <c r="C41" t="s">
+        <v>571</v>
+      </c>
+      <c r="D41" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>572</v>
+      </c>
+      <c r="C42" t="s">
+        <v>572</v>
+      </c>
+      <c r="D42" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>575</v>
+      </c>
+      <c r="C43" t="s">
+        <v>575</v>
+      </c>
+      <c r="D43" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>581</v>
+      </c>
+      <c r="C44" t="s">
+        <v>569</v>
+      </c>
+      <c r="D44" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>580</v>
+      </c>
+      <c r="C45" t="s">
+        <v>580</v>
+      </c>
+      <c r="D45" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>572</v>
+      </c>
+      <c r="C46" t="s">
+        <v>572</v>
+      </c>
+      <c r="D46" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>572</v>
+      </c>
+      <c r="C47" t="s">
+        <v>572</v>
+      </c>
+      <c r="D47" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>572</v>
+      </c>
+      <c r="C48" t="s">
+        <v>568</v>
+      </c>
+      <c r="D48" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>571</v>
+      </c>
+      <c r="C49" t="s">
+        <v>571</v>
+      </c>
+      <c r="D49" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>570</v>
+      </c>
+      <c r="D50" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>570</v>
+      </c>
+      <c r="D51" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>573</v>
+      </c>
+      <c r="C52" t="s">
+        <v>574</v>
+      </c>
+      <c r="D52" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>571</v>
+      </c>
+      <c r="C53" t="s">
+        <v>571</v>
+      </c>
+      <c r="D53" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>571</v>
+      </c>
+      <c r="C54" t="s">
+        <v>571</v>
+      </c>
+      <c r="D54" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>583</v>
+      </c>
+      <c r="C55" t="s">
+        <v>577</v>
+      </c>
+      <c r="D55" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>583</v>
+      </c>
+      <c r="C56" t="s">
+        <v>577</v>
+      </c>
+      <c r="D56" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>579</v>
+      </c>
+      <c r="C57" t="s">
+        <v>580</v>
+      </c>
+      <c r="D57" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>584</v>
+      </c>
+      <c r="C58" t="s">
+        <v>566</v>
+      </c>
+      <c r="D58" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>574</v>
+      </c>
+      <c r="C59" t="s">
+        <v>574</v>
+      </c>
+      <c r="D59" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>574</v>
+      </c>
+      <c r="C60" t="s">
+        <v>574</v>
+      </c>
+      <c r="D60" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>571</v>
+      </c>
+      <c r="C61" t="s">
+        <v>571</v>
+      </c>
+      <c r="D61" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>573</v>
+      </c>
+      <c r="C62" t="s">
+        <v>574</v>
+      </c>
+      <c r="D62" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>576</v>
+      </c>
+      <c r="C63" t="s">
+        <v>577</v>
+      </c>
+      <c r="D63" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>568</v>
+      </c>
+      <c r="C64" t="s">
+        <v>568</v>
+      </c>
+      <c r="D64" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>568</v>
+      </c>
+      <c r="C65" t="s">
+        <v>568</v>
+      </c>
+      <c r="D65" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>572</v>
+      </c>
+      <c r="C66" t="s">
+        <v>569</v>
+      </c>
+      <c r="D66" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>571</v>
+      </c>
+      <c r="C67" t="s">
+        <v>571</v>
+      </c>
+      <c r="D67" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>572</v>
+      </c>
+      <c r="C68" t="s">
+        <v>569</v>
+      </c>
+      <c r="D68" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>571</v>
+      </c>
+      <c r="C69" t="s">
+        <v>571</v>
+      </c>
+      <c r="D69" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>583</v>
+      </c>
+      <c r="C70" t="s">
+        <v>577</v>
+      </c>
+      <c r="D70" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>579</v>
+      </c>
+      <c r="C71" t="s">
+        <v>568</v>
+      </c>
+      <c r="D71" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>572</v>
+      </c>
+      <c r="C72" t="s">
+        <v>569</v>
+      </c>
+      <c r="D72" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>567</v>
+      </c>
+      <c r="C73" t="s">
+        <v>569</v>
+      </c>
+      <c r="D73" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>567</v>
+      </c>
+      <c r="C74" t="s">
+        <v>569</v>
+      </c>
+      <c r="D74" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>565</v>
+      </c>
+      <c r="D75" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>578</v>
+      </c>
+      <c r="C76" t="s">
+        <v>565</v>
+      </c>
+      <c r="D76" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>565</v>
+      </c>
+      <c r="D77" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>583</v>
+      </c>
+      <c r="C78" t="s">
+        <v>569</v>
+      </c>
+      <c r="D78" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>571</v>
+      </c>
+      <c r="C79" t="s">
+        <v>571</v>
+      </c>
+      <c r="D79" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>565</v>
+      </c>
+      <c r="D80" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>574</v>
+      </c>
+      <c r="C81" t="s">
+        <v>574</v>
+      </c>
+      <c r="D81" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>578</v>
+      </c>
+      <c r="C82" t="s">
+        <v>565</v>
+      </c>
+      <c r="D82" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>573</v>
+      </c>
+      <c r="C83" t="s">
+        <v>574</v>
+      </c>
+      <c r="D83" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>576</v>
+      </c>
+      <c r="C84" t="s">
+        <v>568</v>
+      </c>
+      <c r="D84" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>574</v>
+      </c>
+      <c r="C85" t="s">
+        <v>574</v>
+      </c>
+      <c r="D85" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>575</v>
+      </c>
+      <c r="C86" t="s">
+        <v>575</v>
+      </c>
+      <c r="D86" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
+        <v>571</v>
+      </c>
+      <c r="C87" t="s">
+        <v>571</v>
+      </c>
+      <c r="D87" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
+        <v>578</v>
+      </c>
+      <c r="C88" t="s">
+        <v>565</v>
+      </c>
+      <c r="D88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
+        <v>570</v>
+      </c>
+      <c r="C89" t="s">
+        <v>566</v>
+      </c>
+      <c r="D89" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>565</v>
+      </c>
+      <c r="D90" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
+        <v>578</v>
+      </c>
+      <c r="C91" t="s">
+        <v>566</v>
+      </c>
+      <c r="D91" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
+        <v>575</v>
+      </c>
+      <c r="C92" t="s">
+        <v>575</v>
+      </c>
+      <c r="D92" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
+        <v>572</v>
+      </c>
+      <c r="C93" t="s">
+        <v>569</v>
+      </c>
+      <c r="D93" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>580</v>
+      </c>
+      <c r="D94" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>575</v>
+      </c>
+      <c r="C95" t="s">
+        <v>575</v>
+      </c>
+      <c r="D95" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
+        <v>566</v>
+      </c>
+      <c r="D96" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
+        <v>578</v>
+      </c>
+      <c r="C97" t="s">
+        <v>565</v>
+      </c>
+      <c r="D97" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>578</v>
+      </c>
+      <c r="C98" t="s">
+        <v>565</v>
+      </c>
+      <c r="D98" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>576</v>
+      </c>
+      <c r="C99" t="s">
+        <v>569</v>
+      </c>
+      <c r="D99" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>581</v>
+      </c>
+      <c r="C100" t="s">
+        <v>580</v>
+      </c>
+      <c r="D100" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>572</v>
+      </c>
+      <c r="C101" t="s">
+        <v>569</v>
+      </c>
+      <c r="D101" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>570</v>
+      </c>
+      <c r="C102" t="s">
+        <v>566</v>
+      </c>
+      <c r="D102" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
+        <v>565</v>
+      </c>
+      <c r="D103" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>572</v>
+      </c>
+      <c r="C104" t="s">
+        <v>572</v>
+      </c>
+      <c r="D104" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>584</v>
+      </c>
+      <c r="C105" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C106" t="s">
+        <v>565</v>
+      </c>
+      <c r="D106" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>571</v>
+      </c>
+      <c r="C107" t="s">
+        <v>571</v>
+      </c>
+      <c r="D107" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>568</v>
+      </c>
+      <c r="C108" t="s">
+        <v>580</v>
+      </c>
+      <c r="D108" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>570</v>
+      </c>
+      <c r="C109" t="s">
+        <v>566</v>
+      </c>
+      <c r="D109" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>571</v>
+      </c>
+      <c r="C110" t="s">
+        <v>571</v>
+      </c>
+      <c r="D110" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B111" t="s">
+        <v>579</v>
+      </c>
+      <c r="C111" t="s">
+        <v>580</v>
+      </c>
+      <c r="D111" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
+        <v>571</v>
+      </c>
+      <c r="C112" t="s">
+        <v>571</v>
+      </c>
+      <c r="D112" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
+        <v>566</v>
+      </c>
+      <c r="D113" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
+        <v>566</v>
+      </c>
+      <c r="D114" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
+        <v>574</v>
+      </c>
+      <c r="C115" t="s">
+        <v>574</v>
+      </c>
+      <c r="D115" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B116" t="s">
+        <v>583</v>
+      </c>
+      <c r="C116" t="s">
+        <v>577</v>
+      </c>
+      <c r="D116" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
+        <v>583</v>
+      </c>
+      <c r="C117" t="s">
+        <v>577</v>
+      </c>
+      <c r="D117" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
+        <v>571</v>
+      </c>
+      <c r="C118" t="s">
+        <v>571</v>
+      </c>
+      <c r="D118" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>571</v>
+      </c>
+      <c r="C119" t="s">
+        <v>571</v>
+      </c>
+      <c r="D119" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>576</v>
+      </c>
+      <c r="C120" t="s">
+        <v>569</v>
+      </c>
+      <c r="D120" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B121" t="s">
+        <v>571</v>
+      </c>
+      <c r="C121" t="s">
+        <v>571</v>
+      </c>
+      <c r="D121" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
+        <v>578</v>
+      </c>
+      <c r="C122" t="s">
+        <v>566</v>
+      </c>
+      <c r="D122" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>573</v>
+      </c>
+      <c r="C123" t="s">
+        <v>574</v>
+      </c>
+      <c r="D123" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>578</v>
+      </c>
+      <c r="C124" t="s">
+        <v>565</v>
+      </c>
+      <c r="D124" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>578</v>
+      </c>
+      <c r="C125" t="s">
+        <v>565</v>
+      </c>
+      <c r="D125" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>580</v>
+      </c>
+      <c r="C126" t="s">
+        <v>580</v>
+      </c>
+      <c r="D126" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>573</v>
+      </c>
+      <c r="C127" t="s">
+        <v>574</v>
+      </c>
+      <c r="D127" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>578</v>
+      </c>
+      <c r="C128" t="s">
+        <v>565</v>
+      </c>
+      <c r="D128" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>572</v>
+      </c>
+      <c r="C129" t="s">
+        <v>572</v>
+      </c>
+      <c r="D129" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
+        <v>580</v>
+      </c>
+      <c r="C130" t="s">
+        <v>569</v>
+      </c>
+      <c r="D130" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>568</v>
+      </c>
+      <c r="C131" t="s">
+        <v>568</v>
+      </c>
+      <c r="D131" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
+        <v>574</v>
+      </c>
+      <c r="C132" t="s">
+        <v>574</v>
+      </c>
+      <c r="D132" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B133" t="s">
+        <v>581</v>
+      </c>
+      <c r="C133" t="s">
+        <v>581</v>
+      </c>
+      <c r="D133" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C134" t="s">
+        <v>566</v>
+      </c>
+      <c r="D134" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C135" t="s">
+        <v>569</v>
+      </c>
+      <c r="D135" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B136" t="s">
+        <v>572</v>
+      </c>
+      <c r="C136" t="s">
+        <v>569</v>
+      </c>
+      <c r="D136" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
+        <v>572</v>
+      </c>
+      <c r="C137" t="s">
+        <v>569</v>
+      </c>
+      <c r="D137" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>571</v>
+      </c>
+      <c r="C139" t="s">
+        <v>571</v>
+      </c>
+      <c r="D139" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>571</v>
+      </c>
+      <c r="C140" t="s">
+        <v>571</v>
+      </c>
+      <c r="D140" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C141" t="s">
+        <v>566</v>
+      </c>
+      <c r="D141" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B142" t="s">
+        <v>571</v>
+      </c>
+      <c r="C142" t="s">
+        <v>571</v>
+      </c>
+      <c r="D142" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
+        <v>571</v>
+      </c>
+      <c r="C143" t="s">
+        <v>571</v>
+      </c>
+      <c r="D143" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B144" t="s">
+        <v>578</v>
+      </c>
+      <c r="C144" t="s">
+        <v>565</v>
+      </c>
+      <c r="D144" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
+        <v>573</v>
+      </c>
+      <c r="C145" t="s">
+        <v>574</v>
+      </c>
+      <c r="D145" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B146" t="s">
+        <v>578</v>
+      </c>
+      <c r="C146" t="s">
+        <v>565</v>
+      </c>
+      <c r="D146" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
+        <v>576</v>
+      </c>
+      <c r="C147" t="s">
+        <v>569</v>
+      </c>
+      <c r="D147" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B148" t="s">
+        <v>580</v>
+      </c>
+      <c r="C148" t="s">
+        <v>580</v>
+      </c>
+      <c r="D148" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B149" t="s">
+        <v>576</v>
+      </c>
+      <c r="C149" t="s">
+        <v>569</v>
+      </c>
+      <c r="D149" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B150" t="s">
+        <v>573</v>
+      </c>
+      <c r="C150" t="s">
+        <v>574</v>
+      </c>
+      <c r="D150" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B151" t="s">
+        <v>571</v>
+      </c>
+      <c r="C151" t="s">
+        <v>571</v>
+      </c>
+      <c r="D151" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>580</v>
+      </c>
+      <c r="C152" t="s">
+        <v>580</v>
+      </c>
+      <c r="D152" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
+        <v>571</v>
+      </c>
+      <c r="C153" t="s">
+        <v>571</v>
+      </c>
+      <c r="D153" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
+        <v>579</v>
+      </c>
+      <c r="C154" t="s">
+        <v>580</v>
+      </c>
+      <c r="D154" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B155" t="s">
+        <v>578</v>
+      </c>
+      <c r="C155" t="s">
+        <v>565</v>
+      </c>
+      <c r="D155" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C156" t="s">
+        <v>566</v>
+      </c>
+      <c r="D156" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B157" t="s">
+        <v>578</v>
+      </c>
+      <c r="C157" t="s">
+        <v>565</v>
+      </c>
+      <c r="D157" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
+        <v>580</v>
+      </c>
+      <c r="C158" t="s">
+        <v>580</v>
+      </c>
+      <c r="D158" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>571</v>
+      </c>
+      <c r="C159" t="s">
+        <v>571</v>
+      </c>
+      <c r="D159" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B161" t="s">
+        <v>576</v>
+      </c>
+      <c r="C161" t="s">
+        <v>569</v>
+      </c>
+      <c r="D161" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
+        <v>570</v>
+      </c>
+      <c r="C162" t="s">
+        <v>566</v>
+      </c>
+      <c r="D162" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B163" t="s">
+        <v>571</v>
+      </c>
+      <c r="C163" t="s">
+        <v>571</v>
+      </c>
+      <c r="D163" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C164" t="s">
+        <v>566</v>
+      </c>
+      <c r="D164" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B165" t="s">
+        <v>567</v>
+      </c>
+      <c r="C165" t="s">
+        <v>569</v>
+      </c>
+      <c r="D165" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B166" t="s">
+        <v>567</v>
+      </c>
+      <c r="C166" t="s">
+        <v>569</v>
+      </c>
+      <c r="D166" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B167" t="s">
+        <v>572</v>
+      </c>
+      <c r="C167" t="s">
+        <v>572</v>
+      </c>
+      <c r="D167" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B168" t="s">
+        <v>572</v>
+      </c>
+      <c r="C168" t="s">
+        <v>572</v>
+      </c>
+      <c r="D168" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B169" t="s">
+        <v>571</v>
+      </c>
+      <c r="C169" t="s">
+        <v>571</v>
+      </c>
+      <c r="D169" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B170" t="s">
+        <v>580</v>
+      </c>
+      <c r="C170" t="s">
+        <v>580</v>
+      </c>
+      <c r="D170" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B171" t="s">
+        <v>571</v>
+      </c>
+      <c r="C171" t="s">
+        <v>571</v>
+      </c>
+      <c r="D171" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B172" t="s">
+        <v>572</v>
+      </c>
+      <c r="C172" t="s">
+        <v>572</v>
+      </c>
+      <c r="D172" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C174" t="s">
+        <v>565</v>
+      </c>
+      <c r="D174" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B175" t="s">
+        <v>572</v>
+      </c>
+      <c r="C175" t="s">
+        <v>572</v>
+      </c>
+      <c r="D175" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B176" t="s">
+        <v>570</v>
+      </c>
+      <c r="C176" t="s">
+        <v>566</v>
+      </c>
+      <c r="D176" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B177" t="s">
+        <v>572</v>
+      </c>
+      <c r="C177" t="s">
+        <v>572</v>
+      </c>
+      <c r="D177" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B178" t="s">
+        <v>580</v>
+      </c>
+      <c r="C178" t="s">
+        <v>569</v>
+      </c>
+      <c r="D178" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B179" t="s">
+        <v>571</v>
+      </c>
+      <c r="C179" t="s">
+        <v>571</v>
+      </c>
+      <c r="D179" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B180" t="s">
+        <v>576</v>
+      </c>
+      <c r="C180" t="s">
+        <v>569</v>
+      </c>
+      <c r="D180" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B181" t="s">
+        <v>576</v>
+      </c>
+      <c r="C181" t="s">
+        <v>569</v>
+      </c>
+      <c r="D181" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B182" t="s">
+        <v>575</v>
+      </c>
+      <c r="C182" t="s">
+        <v>575</v>
+      </c>
+      <c r="D182" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B183" t="s">
+        <v>571</v>
+      </c>
+      <c r="C183" t="s">
+        <v>571</v>
+      </c>
+      <c r="D183" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B184" t="s">
+        <v>567</v>
+      </c>
+      <c r="C184" t="s">
+        <v>569</v>
+      </c>
+      <c r="D184" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B185" t="s">
+        <v>571</v>
+      </c>
+      <c r="C185" t="s">
+        <v>571</v>
+      </c>
+      <c r="D185" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C186" t="s">
+        <v>566</v>
+      </c>
+      <c r="D186" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C187" t="s">
+        <v>566</v>
+      </c>
+      <c r="D187" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B188" t="s">
+        <v>571</v>
+      </c>
+      <c r="C188" t="s">
+        <v>571</v>
+      </c>
+      <c r="D188" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C189" t="s">
+        <v>566</v>
+      </c>
+      <c r="D189" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B190" t="s">
+        <v>576</v>
+      </c>
+      <c r="C190" t="s">
+        <v>569</v>
+      </c>
+      <c r="D190" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B191" t="s">
+        <v>576</v>
+      </c>
+      <c r="C191" t="s">
+        <v>569</v>
+      </c>
+      <c r="D191" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B192" t="s">
+        <v>574</v>
+      </c>
+      <c r="C192" t="s">
+        <v>569</v>
+      </c>
+      <c r="D192" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C193" t="s">
+        <v>566</v>
+      </c>
+      <c r="D193" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B194" t="s">
+        <v>571</v>
+      </c>
+      <c r="C194" t="s">
+        <v>571</v>
+      </c>
+      <c r="D194" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B195" t="s">
+        <v>568</v>
+      </c>
+      <c r="C195" t="s">
+        <v>568</v>
+      </c>
+      <c r="D195" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B196" t="s">
+        <v>568</v>
+      </c>
+      <c r="C196" t="s">
+        <v>568</v>
+      </c>
+      <c r="D196" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B197" t="s">
+        <v>581</v>
+      </c>
+      <c r="C197" t="s">
+        <v>581</v>
+      </c>
+      <c r="D197" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B198" t="s">
+        <v>573</v>
+      </c>
+      <c r="C198" t="s">
+        <v>574</v>
+      </c>
+      <c r="D198" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C199" t="s">
+        <v>566</v>
+      </c>
+      <c r="D199" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B200" t="s">
+        <v>571</v>
+      </c>
+      <c r="C200" t="s">
+        <v>571</v>
+      </c>
+      <c r="D200" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B201" t="s">
+        <v>568</v>
+      </c>
+      <c r="C201" t="s">
+        <v>568</v>
+      </c>
+      <c r="D201" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C202" t="s">
+        <v>566</v>
+      </c>
+      <c r="D202" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C203" t="s">
+        <v>566</v>
+      </c>
+      <c r="D203" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B204" t="s">
+        <v>574</v>
+      </c>
+      <c r="C204" t="s">
+        <v>574</v>
+      </c>
+      <c r="D204" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B205" t="s">
+        <v>578</v>
+      </c>
+      <c r="C205" t="s">
+        <v>565</v>
+      </c>
+      <c r="D205" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B206" t="s">
+        <v>571</v>
+      </c>
+      <c r="C206" t="s">
+        <v>571</v>
+      </c>
+      <c r="D206" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>

--- a/src/constants/categorizedItems.xlsx
+++ b/src/constants/categorizedItems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="585">
   <si>
     <t>name</t>
   </si>
@@ -1350,9 +1350,6 @@
     <t>Olives (green)</t>
   </si>
   <si>
-    <t>or substitutes</t>
-  </si>
-  <si>
     <t>Pancake / Waffle mix</t>
   </si>
   <si>
@@ -1533,9 +1530,6 @@
     <t>Soups</t>
   </si>
   <si>
-    <t>Sour creamSwiss</t>
-  </si>
-  <si>
     <t>Spaghetti</t>
   </si>
   <si>
@@ -1774,13 +1768,19 @@
   </si>
   <si>
     <t>Entrance</t>
+  </si>
+  <si>
+    <t>Apple Cider</t>
+  </si>
+  <si>
+    <t>Tamales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1915,8 +1915,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2096,8 +2103,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2212,6 +2225,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF9BC2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9BC2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF9BC2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9BC2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9BC2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2257,8 +2294,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2595,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2612,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1" t="s">
         <v>562</v>
-      </c>
-      <c r="C1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2626,10 +2667,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2637,10 +2678,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -2648,10 +2689,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -2659,13 +2700,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -2673,13 +2714,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -2687,10 +2728,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -2698,10 +2739,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -2709,10 +2750,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -2720,13 +2761,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -2734,13 +2775,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -2748,13 +2789,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2762,10 +2803,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -2773,13 +2814,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C14" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D14" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -2787,10 +2828,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -2798,10 +2839,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D16" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -2809,10 +2850,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2820,13 +2861,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C18" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D18" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -2834,13 +2875,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D19" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2848,13 +2889,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C20" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2862,13 +2903,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D21" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -2876,13 +2917,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C22" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D22" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -2890,13 +2931,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D23" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2904,10 +2945,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D24" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -2915,13 +2956,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -2929,13 +2970,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C26" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D26" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -2943,13 +2984,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C27" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D27" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -2957,10 +2998,10 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D28" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -2968,13 +3009,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C29" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D29" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -2982,13 +3023,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -2996,13 +3037,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C31" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D31" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -3010,13 +3051,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C32" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D32" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -3024,13 +3065,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C33" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D33" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -3038,13 +3079,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C34" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D34" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -3052,13 +3093,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C35" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D35" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -3066,13 +3107,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C36" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D36" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -3080,13 +3121,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C37" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D37" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -3094,10 +3135,10 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D38" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -3105,13 +3146,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C39" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D39" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -3119,13 +3160,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C40" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D40" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -3133,13 +3174,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C41" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D41" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -3147,13 +3188,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C42" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D42" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -3161,13 +3202,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C43" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D43" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -3175,13 +3216,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C44" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D44" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -3189,13 +3230,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C45" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D45" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -3203,13 +3244,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C46" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D46" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -3217,13 +3258,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C47" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D47" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -3231,13 +3272,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C48" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D48" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -3245,13 +3286,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C49" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D49" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -3259,10 +3300,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D50" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -3270,10 +3311,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D51" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -3281,13 +3322,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C52" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D52" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -3295,13 +3336,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C53" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D53" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -3309,13 +3350,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C54" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D54" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -3323,13 +3364,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C55" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D55" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -3337,13 +3378,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C56" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D56" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -3351,13 +3392,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C57" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D57" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -3365,13 +3406,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C58" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D58" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -3379,13 +3420,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C59" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D59" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -3393,13 +3434,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C60" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D60" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -3407,13 +3448,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C61" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D61" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -3421,13 +3462,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C62" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D62" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -3435,13 +3476,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C63" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D63" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -3449,13 +3490,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C64" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D64" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -3463,13 +3504,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C65" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D65" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
@@ -3477,13 +3518,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C66" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D66" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -3491,13 +3532,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C67" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D67" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -3505,13 +3546,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C68" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D68" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -3519,13 +3560,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C69" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D69" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -3533,13 +3574,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C70" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D70" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -3547,13 +3588,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C71" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D71" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -3561,13 +3602,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C72" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D72" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -3575,13 +3616,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C73" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D73" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
@@ -3589,13 +3630,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C74" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D74" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
@@ -3603,10 +3644,10 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D75" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -3614,13 +3655,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C76" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D76" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
@@ -3628,10 +3669,10 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D77" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -3639,13 +3680,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C78" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D78" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
@@ -3653,13 +3694,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C79" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D79" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
@@ -3667,10 +3708,10 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D80" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -3678,13 +3719,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C81" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D81" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -3692,13 +3733,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C82" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D82" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -3706,13 +3747,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C83" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D83" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -3720,13 +3761,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C84" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D84" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -3734,13 +3775,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C85" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D85" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -3748,13 +3789,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C86" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D86" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -3762,13 +3803,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C87" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D87" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
@@ -3776,13 +3817,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C88" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D88" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -3790,13 +3831,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C89" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D89" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -3804,10 +3845,10 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D90" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -3815,13 +3856,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C91" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D91" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -3829,13 +3870,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C92" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D92" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -3843,13 +3884,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C93" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D93" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -3857,10 +3898,10 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D94" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -3868,13 +3909,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C95" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D95" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -3882,10 +3923,10 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D96" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
@@ -3893,13 +3934,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D97" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
@@ -3907,13 +3948,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D98" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -3921,13 +3962,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C99" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D99" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -3935,13 +3976,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C100" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D100" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -3949,13 +3990,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C101" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D101" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
@@ -3963,13 +4004,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C102" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D102" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -3977,10 +4018,10 @@
         <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D103" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -3988,13 +4029,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C104" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D104" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
@@ -4002,10 +4043,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C105" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -4013,10 +4054,10 @@
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D106" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
@@ -4024,13 +4065,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C107" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D107" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -4038,13 +4079,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C108" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D108" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -4052,13 +4093,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C109" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D109" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -4066,13 +4107,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C110" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D110" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -4080,13 +4121,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C111" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D111" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -4094,13 +4135,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C112" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D112" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -4108,10 +4149,10 @@
         <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D113" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -4119,10 +4160,10 @@
         <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D114" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -4130,13 +4171,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C115" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D115" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -4144,13 +4185,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C116" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D116" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -4158,13 +4199,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C117" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D117" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -4172,13 +4213,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C118" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D118" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -4186,13 +4227,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C119" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D119" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -4200,13 +4241,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C120" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D120" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -4214,13 +4255,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C121" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D121" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -4228,13 +4269,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C122" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D122" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -4242,13 +4283,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C123" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D123" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -4256,13 +4297,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C124" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D124" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -4270,13 +4311,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C125" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D125" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
@@ -4284,13 +4325,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C126" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D126" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -4298,13 +4339,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C127" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D127" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -4312,13 +4353,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C128" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D128" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -4326,13 +4367,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C129" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D129" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
@@ -4340,13 +4381,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C130" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D130" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -4354,13 +4395,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C131" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D131" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -4368,13 +4409,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C132" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D132" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -4382,13 +4423,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C133" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D133" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -4396,10 +4437,10 @@
         <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D134" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -4407,10 +4448,10 @@
         <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D135" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -4418,13 +4459,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C136" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D136" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -4432,13 +4473,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C137" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D137" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -4446,7 +4487,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -4454,13 +4495,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C139" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D139" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -4468,13 +4509,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C140" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D140" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -4482,10 +4523,10 @@
         <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D141" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -4493,13 +4534,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C142" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D142" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -4507,13 +4548,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C143" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D143" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -4521,13 +4562,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C144" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D144" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
@@ -4535,13 +4576,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C145" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D145" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
@@ -4549,13 +4590,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C146" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D146" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
@@ -4563,13 +4604,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C147" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D147" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
@@ -4577,13 +4618,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C148" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D148" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
@@ -4591,13 +4632,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C149" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D149" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
@@ -4605,13 +4646,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C150" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D150" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
@@ -4619,13 +4660,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C151" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D151" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
@@ -4633,13 +4674,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C152" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D152" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
@@ -4647,13 +4688,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C153" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D153" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
@@ -4661,13 +4702,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C154" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D154" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -4675,13 +4716,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C155" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D155" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -4689,10 +4730,10 @@
         <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D156" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -4700,13 +4741,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C157" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D157" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -4714,13 +4755,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C158" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D158" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
@@ -4728,13 +4769,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C159" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D159" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
@@ -4747,13 +4788,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C161" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D161" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
@@ -4761,13 +4802,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C162" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D162" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
@@ -4775,13 +4816,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C163" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D163" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
@@ -4789,10 +4830,10 @@
         <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D164" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
@@ -4800,13 +4841,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C165" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D165" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
@@ -4814,13 +4855,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C166" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D166" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
@@ -4828,13 +4869,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C167" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D167" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
@@ -4842,13 +4883,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C168" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D168" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
@@ -4856,13 +4897,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C169" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D169" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
@@ -4870,13 +4911,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C170" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D170" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
@@ -4884,13 +4925,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C171" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D171" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
@@ -4898,13 +4939,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C172" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D172" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
@@ -4917,10 +4958,10 @@
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D174" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
@@ -4928,13 +4969,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C175" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D175" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
@@ -4942,13 +4983,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C176" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D176" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
@@ -4956,13 +4997,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C177" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D177" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
@@ -4970,13 +5011,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C178" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D178" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
@@ -4984,13 +5025,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C179" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D179" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
@@ -4998,13 +5039,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C180" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D180" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
@@ -5012,13 +5053,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C181" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D181" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
@@ -5026,13 +5067,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C182" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D182" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
@@ -5040,13 +5081,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C183" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D183" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
@@ -5054,13 +5095,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C184" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D184" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
@@ -5068,13 +5109,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C185" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D185" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
@@ -5082,10 +5123,10 @@
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D186" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
@@ -5093,10 +5134,10 @@
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D187" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
@@ -5104,13 +5145,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C188" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D188" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
@@ -5118,10 +5159,10 @@
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D189" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
@@ -5129,13 +5170,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C190" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D190" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
@@ -5143,13 +5184,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C191" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D191" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
@@ -5157,13 +5198,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C192" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D192" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
@@ -5171,10 +5212,10 @@
         <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D193" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
@@ -5182,13 +5223,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C194" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D194" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
@@ -5196,13 +5237,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C195" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D195" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
@@ -5210,13 +5251,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C196" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D196" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
@@ -5224,13 +5265,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C197" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D197" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
@@ -5238,13 +5279,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C198" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D198" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
@@ -5252,10 +5293,10 @@
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D199" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
@@ -5263,13 +5304,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C200" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D200" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
@@ -5277,13 +5318,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C201" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D201" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
@@ -5291,10 +5332,10 @@
         <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D202" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
@@ -5302,10 +5343,10 @@
         <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D203" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
@@ -5313,13 +5354,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C204" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D204" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
@@ -5327,13 +5368,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C205" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D205" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
@@ -5341,1799 +5382,4878 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C206" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D206" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
+      <c r="B207" t="s">
+        <v>566</v>
+      </c>
+      <c r="C207" t="s">
+        <v>566</v>
+      </c>
+      <c r="D207" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B208" t="s">
+        <v>574</v>
+      </c>
+      <c r="C208" t="s">
+        <v>567</v>
+      </c>
+      <c r="D208" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B209" t="s">
+        <v>572</v>
+      </c>
+      <c r="C209" t="s">
+        <v>572</v>
+      </c>
+      <c r="D209" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B210" t="s">
+        <v>577</v>
+      </c>
+      <c r="C210" t="s">
+        <v>578</v>
+      </c>
+      <c r="D210" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B211" t="s">
+        <v>577</v>
+      </c>
+      <c r="C211" t="s">
+        <v>578</v>
+      </c>
+      <c r="D211" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B212" t="s">
+        <v>566</v>
+      </c>
+      <c r="C212" t="s">
+        <v>569</v>
+      </c>
+      <c r="D212" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B213" t="s">
+        <v>571</v>
+      </c>
+      <c r="C213" t="s">
+        <v>572</v>
+      </c>
+      <c r="D213" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B214" t="s">
+        <v>566</v>
+      </c>
+      <c r="C214" t="s">
+        <v>566</v>
+      </c>
+      <c r="D214" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B215" t="s">
+        <v>570</v>
+      </c>
+      <c r="C215" t="s">
+        <v>570</v>
+      </c>
+      <c r="D215" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C216" t="s">
+        <v>564</v>
+      </c>
+      <c r="D216" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B217" t="s">
+        <v>569</v>
+      </c>
+      <c r="C217" t="s">
+        <v>578</v>
+      </c>
+      <c r="D217" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B218" t="s">
+        <v>578</v>
+      </c>
+      <c r="C218" t="s">
+        <v>572</v>
+      </c>
+      <c r="D218" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B219" t="s">
+        <v>576</v>
+      </c>
+      <c r="C219" t="s">
+        <v>563</v>
+      </c>
+      <c r="D219" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B220" t="s">
+        <v>576</v>
+      </c>
+      <c r="C220" t="s">
+        <v>563</v>
+      </c>
+      <c r="D220" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B221" t="s">
+        <v>571</v>
+      </c>
+      <c r="C221" t="s">
+        <v>572</v>
+      </c>
+      <c r="D221" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B222" t="s">
+        <v>578</v>
+      </c>
+      <c r="C222" t="s">
+        <v>578</v>
+      </c>
+      <c r="D222" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B223" t="s">
+        <v>570</v>
+      </c>
+      <c r="C223" t="s">
+        <v>570</v>
+      </c>
+      <c r="D223" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B224" t="s">
+        <v>570</v>
+      </c>
+      <c r="C224" t="s">
+        <v>570</v>
+      </c>
+      <c r="D224" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B225" t="s">
+        <v>569</v>
+      </c>
+      <c r="C225" t="s">
+        <v>569</v>
+      </c>
+      <c r="D225" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C226" t="s">
+        <v>564</v>
+      </c>
+      <c r="D226" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B227" t="s">
+        <v>582</v>
+      </c>
+      <c r="C227" t="s">
+        <v>566</v>
+      </c>
+      <c r="D227" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B228" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B229" t="s">
+        <v>566</v>
+      </c>
+      <c r="C229" t="s">
+        <v>566</v>
+      </c>
+      <c r="D229" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B230" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B231" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B232" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B233" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C234" t="s">
+        <v>564</v>
+      </c>
+      <c r="D234" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B235" t="s">
+        <v>566</v>
+      </c>
+      <c r="C235" t="s">
+        <v>567</v>
+      </c>
+      <c r="D235" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B236" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B237" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B238" t="s">
+        <v>578</v>
+      </c>
+      <c r="C238" t="s">
+        <v>575</v>
+      </c>
+      <c r="D238" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B239" t="s">
+        <v>568</v>
+      </c>
+      <c r="C239" t="s">
+        <v>564</v>
+      </c>
+      <c r="D239" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B240" t="s">
+        <v>569</v>
+      </c>
+      <c r="C240" t="s">
+        <v>569</v>
+      </c>
+      <c r="D240" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B241" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B242" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B243" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B244" t="s">
+        <v>574</v>
+      </c>
+      <c r="C244" t="s">
+        <v>567</v>
+      </c>
+      <c r="D244" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B245" t="s">
+        <v>570</v>
+      </c>
+      <c r="C245" t="s">
+        <v>570</v>
+      </c>
+      <c r="D245" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B246" t="s">
+        <v>570</v>
+      </c>
+      <c r="C246" t="s">
+        <v>570</v>
+      </c>
+      <c r="D246" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B247" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B248" t="s">
+        <v>579</v>
+      </c>
+      <c r="C248" t="s">
+        <v>579</v>
+      </c>
+      <c r="D248" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B249" t="s">
+        <v>570</v>
+      </c>
+      <c r="C249" t="s">
+        <v>570</v>
+      </c>
+      <c r="D249" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B250" t="s">
+        <v>576</v>
+      </c>
+      <c r="C250" t="s">
+        <v>563</v>
+      </c>
+      <c r="D250" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B251" t="s">
+        <v>577</v>
+      </c>
+      <c r="C251" t="s">
+        <v>578</v>
+      </c>
+      <c r="D251" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B252" t="s">
+        <v>581</v>
+      </c>
+      <c r="C252" t="s">
+        <v>567</v>
+      </c>
+      <c r="D252" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C253" t="s">
+        <v>564</v>
+      </c>
+      <c r="D253" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B254" t="s">
+        <v>578</v>
+      </c>
+      <c r="C254" t="s">
+        <v>567</v>
+      </c>
+      <c r="D254" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B255" t="s">
+        <v>577</v>
+      </c>
+      <c r="C255" t="s">
+        <v>578</v>
+      </c>
+      <c r="D255" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B256" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C257" t="s">
+        <v>564</v>
+      </c>
+      <c r="D257" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B258" t="s">
+        <v>570</v>
+      </c>
+      <c r="C258" t="s">
+        <v>570</v>
+      </c>
+      <c r="D258" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B259" t="s">
+        <v>570</v>
+      </c>
+      <c r="C259" t="s">
+        <v>570</v>
+      </c>
+      <c r="D259" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B260" t="s">
+        <v>578</v>
+      </c>
+      <c r="C260" t="s">
+        <v>578</v>
+      </c>
+      <c r="D260" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B261" t="s">
+        <v>569</v>
+      </c>
+      <c r="C261" t="s">
+        <v>569</v>
+      </c>
+      <c r="D261" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B262" t="s">
+        <v>570</v>
+      </c>
+      <c r="C262" t="s">
+        <v>570</v>
+      </c>
+      <c r="D262" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B263" t="s">
+        <v>570</v>
+      </c>
+      <c r="C263" t="s">
+        <v>570</v>
+      </c>
+      <c r="D263" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B264" t="s">
+        <v>570</v>
+      </c>
+      <c r="C264" t="s">
+        <v>570</v>
+      </c>
+      <c r="D264" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B265" t="s">
+        <v>578</v>
+      </c>
+      <c r="C265" t="s">
+        <v>578</v>
+      </c>
+      <c r="D265" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B266" t="s">
+        <v>574</v>
+      </c>
+      <c r="C266" t="s">
+        <v>575</v>
+      </c>
+      <c r="D266" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B267" t="s">
+        <v>566</v>
+      </c>
+      <c r="C267" t="s">
+        <v>567</v>
+      </c>
+      <c r="D267" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B268" t="s">
+        <v>570</v>
+      </c>
+      <c r="C268" t="s">
+        <v>570</v>
+      </c>
+      <c r="D268" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B269" t="s">
+        <v>569</v>
+      </c>
+      <c r="C269" t="s">
+        <v>569</v>
+      </c>
+      <c r="D269" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B270" t="s">
+        <v>569</v>
+      </c>
+      <c r="C270" t="s">
+        <v>569</v>
+      </c>
+      <c r="D270" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B271" t="s">
+        <v>569</v>
+      </c>
+      <c r="C271" t="s">
+        <v>569</v>
+      </c>
+      <c r="D271" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B272" t="s">
+        <v>569</v>
+      </c>
+      <c r="C272" t="s">
+        <v>569</v>
+      </c>
+      <c r="D272" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B273" t="s">
+        <v>569</v>
+      </c>
+      <c r="C273" t="s">
+        <v>569</v>
+      </c>
+      <c r="D273" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B274" t="s">
+        <v>581</v>
+      </c>
+      <c r="C274" t="s">
+        <v>567</v>
+      </c>
+      <c r="D274" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B275" t="s">
+        <v>573</v>
+      </c>
+      <c r="C275" t="s">
+        <v>573</v>
+      </c>
+      <c r="D275" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B276" t="s">
+        <v>566</v>
+      </c>
+      <c r="C276" t="s">
+        <v>566</v>
+      </c>
+      <c r="D276" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B277" t="s">
+        <v>570</v>
+      </c>
+      <c r="C277" t="s">
+        <v>570</v>
+      </c>
+      <c r="D277" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B278" t="s">
+        <v>569</v>
+      </c>
+      <c r="C278" t="s">
+        <v>569</v>
+      </c>
+      <c r="D278" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B279" t="s">
+        <v>574</v>
+      </c>
+      <c r="C279" t="s">
+        <v>567</v>
+      </c>
+      <c r="D279" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B280" t="s">
+        <v>569</v>
+      </c>
+      <c r="C280" t="s">
+        <v>569</v>
+      </c>
+      <c r="D280" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B281" t="s">
+        <v>574</v>
+      </c>
+      <c r="C281" t="s">
+        <v>575</v>
+      </c>
+      <c r="D281" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B282" t="s">
+        <v>569</v>
+      </c>
+      <c r="C282" t="s">
+        <v>569</v>
+      </c>
+      <c r="D282" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B283" t="s">
+        <v>569</v>
+      </c>
+      <c r="C283" t="s">
+        <v>569</v>
+      </c>
+      <c r="D283" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B284" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B285" t="s">
+        <v>569</v>
+      </c>
+      <c r="C285" t="s">
+        <v>569</v>
+      </c>
+      <c r="D285" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B286" t="s">
+        <v>574</v>
+      </c>
+      <c r="C286" t="s">
+        <v>575</v>
+      </c>
+      <c r="D286" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B287" t="s">
+        <v>572</v>
+      </c>
+      <c r="C287" t="s">
+        <v>572</v>
+      </c>
+      <c r="D287" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B288" t="s">
+        <v>569</v>
+      </c>
+      <c r="C288" t="s">
+        <v>569</v>
+      </c>
+      <c r="D288" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B289" t="s">
+        <v>566</v>
+      </c>
+      <c r="C289" t="s">
+        <v>566</v>
+      </c>
+      <c r="D289" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B291" t="s">
+        <v>570</v>
+      </c>
+      <c r="C291" t="s">
+        <v>570</v>
+      </c>
+      <c r="D291" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B292" t="s">
+        <v>574</v>
+      </c>
+      <c r="C292" t="s">
+        <v>567</v>
+      </c>
+      <c r="D292" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B293" t="s">
+        <v>574</v>
+      </c>
+      <c r="C293" t="s">
+        <v>567</v>
+      </c>
+      <c r="D293" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B294" t="s">
+        <v>570</v>
+      </c>
+      <c r="C294" t="s">
+        <v>570</v>
+      </c>
+      <c r="D294" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B295" t="s">
+        <v>570</v>
+      </c>
+      <c r="C295" t="s">
+        <v>570</v>
+      </c>
+      <c r="D295" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B296" t="s">
+        <v>569</v>
+      </c>
+      <c r="C296" t="s">
+        <v>569</v>
+      </c>
+      <c r="D296" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B297" t="s">
+        <v>574</v>
+      </c>
+      <c r="C297" t="s">
+        <v>567</v>
+      </c>
+      <c r="D297" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B298" t="s">
+        <v>574</v>
+      </c>
+      <c r="C298" t="s">
+        <v>567</v>
+      </c>
+      <c r="D298" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B299" t="s">
+        <v>570</v>
+      </c>
+      <c r="C299" t="s">
+        <v>570</v>
+      </c>
+      <c r="D299" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B300" t="s">
+        <v>574</v>
+      </c>
+      <c r="C300" t="s">
+        <v>567</v>
+      </c>
+      <c r="D300" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B301" t="s">
+        <v>578</v>
+      </c>
+      <c r="C301" t="s">
+        <v>578</v>
+      </c>
+      <c r="D301" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B302" t="s">
+        <v>569</v>
+      </c>
+      <c r="C302" t="s">
+        <v>569</v>
+      </c>
+      <c r="D302" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B303" t="s">
+        <v>573</v>
+      </c>
+      <c r="C303" t="s">
+        <v>573</v>
+      </c>
+      <c r="D303" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B304" t="s">
+        <v>570</v>
+      </c>
+      <c r="C304" t="s">
+        <v>570</v>
+      </c>
+      <c r="D304" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B305" t="s">
+        <v>570</v>
+      </c>
+      <c r="C305" t="s">
+        <v>570</v>
+      </c>
+      <c r="D305" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B306" t="s">
+        <v>581</v>
+      </c>
+      <c r="C306" t="s">
+        <v>566</v>
+      </c>
+      <c r="D306" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B307" t="s">
+        <v>574</v>
+      </c>
+      <c r="C307" t="s">
+        <v>567</v>
+      </c>
+      <c r="D307" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B308" t="s">
+        <v>574</v>
+      </c>
+      <c r="C308" t="s">
+        <v>567</v>
+      </c>
+      <c r="D308" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B309" t="s">
+        <v>574</v>
+      </c>
+      <c r="C309" t="s">
+        <v>567</v>
+      </c>
+      <c r="D309" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B310" t="s">
+        <v>569</v>
+      </c>
+      <c r="C310" t="s">
+        <v>569</v>
+      </c>
+      <c r="D310" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B311" t="s">
+        <v>565</v>
+      </c>
+      <c r="C311" t="s">
+        <v>566</v>
+      </c>
+      <c r="D311" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B312" t="s">
+        <v>569</v>
+      </c>
+      <c r="C312" t="s">
+        <v>569</v>
+      </c>
+      <c r="D312" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B313" t="s">
+        <v>569</v>
+      </c>
+      <c r="C313" t="s">
+        <v>569</v>
+      </c>
+      <c r="D313" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B314" t="s">
+        <v>565</v>
+      </c>
+      <c r="C314" t="s">
+        <v>566</v>
+      </c>
+      <c r="D314" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B315" t="s">
+        <v>566</v>
+      </c>
+      <c r="C315" t="s">
+        <v>567</v>
+      </c>
+      <c r="D315" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B316" t="s">
+        <v>569</v>
+      </c>
+      <c r="C316" t="s">
+        <v>569</v>
+      </c>
+      <c r="D316" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B317" t="s">
+        <v>579</v>
+      </c>
+      <c r="C317" t="s">
+        <v>579</v>
+      </c>
+      <c r="D317" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B318" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B319" t="s">
+        <v>579</v>
+      </c>
+      <c r="C319" t="s">
+        <v>579</v>
+      </c>
+      <c r="D319" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B320" t="s">
+        <v>574</v>
+      </c>
+      <c r="C320" t="s">
+        <v>567</v>
+      </c>
+      <c r="D320" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B321" t="s">
+        <v>570</v>
+      </c>
+      <c r="C321" t="s">
+        <v>570</v>
+      </c>
+      <c r="D321" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B322" t="s">
+        <v>569</v>
+      </c>
+      <c r="C322" t="s">
+        <v>569</v>
+      </c>
+      <c r="D322" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B323" t="s">
+        <v>569</v>
+      </c>
+      <c r="C323" t="s">
+        <v>569</v>
+      </c>
+      <c r="D323" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B324" t="s">
+        <v>581</v>
+      </c>
+      <c r="C324" t="s">
+        <v>566</v>
+      </c>
+      <c r="D324" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B325" t="s">
+        <v>570</v>
+      </c>
+      <c r="C325" t="s">
+        <v>570</v>
+      </c>
+      <c r="D325" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B326" t="s">
+        <v>570</v>
+      </c>
+      <c r="C326" t="s">
+        <v>570</v>
+      </c>
+      <c r="D326" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B327" t="s">
+        <v>570</v>
+      </c>
+      <c r="C327" t="s">
+        <v>570</v>
+      </c>
+      <c r="D327" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B328" t="s">
+        <v>571</v>
+      </c>
+      <c r="C328" t="s">
+        <v>572</v>
+      </c>
+      <c r="D328" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B329" t="s">
+        <v>569</v>
+      </c>
+      <c r="C329" t="s">
+        <v>569</v>
+      </c>
+      <c r="D329" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B330" t="s">
+        <v>569</v>
+      </c>
+      <c r="C330" t="s">
+        <v>569</v>
+      </c>
+      <c r="D330" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B331" t="s">
+        <v>570</v>
+      </c>
+      <c r="C331" t="s">
+        <v>570</v>
+      </c>
+      <c r="D331" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B332" t="s">
+        <v>570</v>
+      </c>
+      <c r="C332" t="s">
+        <v>570</v>
+      </c>
+      <c r="D332" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B333" t="s">
+        <v>570</v>
+      </c>
+      <c r="C333" t="s">
+        <v>570</v>
+      </c>
+      <c r="D333" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B334" t="s">
+        <v>570</v>
+      </c>
+      <c r="C334" t="s">
+        <v>570</v>
+      </c>
+      <c r="D334" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B335" t="s">
+        <v>574</v>
+      </c>
+      <c r="C335" t="s">
+        <v>567</v>
+      </c>
+      <c r="D335" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B336" t="s">
+        <v>569</v>
+      </c>
+      <c r="C336" t="s">
+        <v>569</v>
+      </c>
+      <c r="D336" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B337" t="s">
+        <v>578</v>
+      </c>
+      <c r="C337" t="s">
+        <v>578</v>
+      </c>
+      <c r="D337" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B338" t="s">
+        <v>574</v>
+      </c>
+      <c r="C338" t="s">
+        <v>567</v>
+      </c>
+      <c r="D338" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B339" t="s">
+        <v>569</v>
+      </c>
+      <c r="C339" t="s">
+        <v>569</v>
+      </c>
+      <c r="D339" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B340" t="s">
+        <v>570</v>
+      </c>
+      <c r="C340" t="s">
+        <v>570</v>
+      </c>
+      <c r="D340" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B341" t="s">
+        <v>569</v>
+      </c>
+      <c r="C341" t="s">
+        <v>569</v>
+      </c>
+      <c r="D341" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B342" t="s">
+        <v>570</v>
+      </c>
+      <c r="C342" t="s">
+        <v>570</v>
+      </c>
+      <c r="D342" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C343" t="s">
+        <v>564</v>
+      </c>
+      <c r="D343" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B344" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D344" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B345" t="s">
+        <v>569</v>
+      </c>
+      <c r="C345" t="s">
+        <v>569</v>
+      </c>
+      <c r="D345" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B346" t="s">
+        <v>581</v>
+      </c>
+      <c r="C346" t="s">
+        <v>566</v>
+      </c>
+      <c r="D346" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B347" t="s">
+        <v>569</v>
+      </c>
+      <c r="C347" t="s">
+        <v>569</v>
+      </c>
+      <c r="D347" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B348" t="s">
+        <v>571</v>
+      </c>
+      <c r="C348" t="s">
+        <v>572</v>
+      </c>
+      <c r="D348" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C350" t="s">
+        <v>564</v>
+      </c>
+      <c r="D350" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B351" t="s">
+        <v>566</v>
+      </c>
+      <c r="C351" t="s">
+        <v>566</v>
+      </c>
+      <c r="D351" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B352" t="s">
+        <v>569</v>
+      </c>
+      <c r="C352" t="s">
+        <v>569</v>
+      </c>
+      <c r="D352" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B353" t="s">
+        <v>573</v>
+      </c>
+      <c r="C353" t="s">
+        <v>573</v>
+      </c>
+      <c r="D353" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B354" t="s">
+        <v>566</v>
+      </c>
+      <c r="C354" t="s">
+        <v>566</v>
+      </c>
+      <c r="D354" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C355" t="s">
+        <v>564</v>
+      </c>
+      <c r="D355" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B356" t="s">
+        <v>568</v>
+      </c>
+      <c r="C356" t="s">
+        <v>564</v>
+      </c>
+      <c r="D356" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B357" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B358" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B359" t="s">
+        <v>578</v>
+      </c>
+      <c r="C359" t="s">
+        <v>578</v>
+      </c>
+      <c r="D359" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B360" t="s">
+        <v>569</v>
+      </c>
+      <c r="C360" t="s">
+        <v>569</v>
+      </c>
+      <c r="D360" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B361" t="s">
+        <v>582</v>
+      </c>
+      <c r="C361" t="s">
+        <v>566</v>
+      </c>
+      <c r="D361" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B362" t="s">
+        <v>569</v>
+      </c>
+      <c r="C362" t="s">
+        <v>569</v>
+      </c>
+      <c r="D362" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B363" t="s">
+        <v>582</v>
+      </c>
+      <c r="C363" t="s">
+        <v>566</v>
+      </c>
+      <c r="D363" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C364" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D364" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B365" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B366" t="s">
+        <v>569</v>
+      </c>
+      <c r="C366" t="s">
+        <v>569</v>
+      </c>
+      <c r="D366" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B367" t="s">
+        <v>572</v>
+      </c>
+      <c r="C367" t="s">
+        <v>572</v>
+      </c>
+      <c r="D367" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B368" t="s">
+        <v>569</v>
+      </c>
+      <c r="C368" t="s">
+        <v>569</v>
+      </c>
+      <c r="D368" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B369" t="s">
+        <v>570</v>
+      </c>
+      <c r="C369" t="s">
+        <v>570</v>
+      </c>
+      <c r="D369" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B370" t="s">
+        <v>576</v>
+      </c>
+      <c r="C370" t="s">
+        <v>564</v>
+      </c>
+      <c r="D370" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B371" t="s">
+        <v>570</v>
+      </c>
+      <c r="C371" t="s">
+        <v>570</v>
+      </c>
+      <c r="D371" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B372" t="s">
+        <v>578</v>
+      </c>
+      <c r="C372" t="s">
+        <v>578</v>
+      </c>
+      <c r="D372" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B373" t="s">
+        <v>579</v>
+      </c>
+      <c r="C373" t="s">
+        <v>579</v>
+      </c>
+      <c r="D373" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B374" t="s">
+        <v>570</v>
+      </c>
+      <c r="C374" t="s">
+        <v>570</v>
+      </c>
+      <c r="D374" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B375" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B376" t="s">
+        <v>579</v>
+      </c>
+      <c r="C376" t="s">
+        <v>579</v>
+      </c>
+      <c r="D376" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B377" t="s">
+        <v>579</v>
+      </c>
+      <c r="C377" t="s">
+        <v>579</v>
+      </c>
+      <c r="D377" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B378" t="s">
+        <v>565</v>
+      </c>
+      <c r="C378" t="s">
+        <v>566</v>
+      </c>
+      <c r="D378" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B379" t="s">
+        <v>569</v>
+      </c>
+      <c r="C379" t="s">
+        <v>569</v>
+      </c>
+      <c r="D379" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B380" t="s">
+        <v>570</v>
+      </c>
+      <c r="C380" t="s">
+        <v>570</v>
+      </c>
+      <c r="D380" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B381" t="s">
+        <v>570</v>
+      </c>
+      <c r="C381" t="s">
+        <v>570</v>
+      </c>
+      <c r="D381" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B382" t="s">
+        <v>570</v>
+      </c>
+      <c r="C382" t="s">
+        <v>570</v>
+      </c>
+      <c r="D382" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C383" t="s">
+        <v>564</v>
+      </c>
+      <c r="D383" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B384" t="s">
+        <v>581</v>
+      </c>
+      <c r="C384" t="s">
+        <v>575</v>
+      </c>
+      <c r="D384" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B385" t="s">
+        <v>581</v>
+      </c>
+      <c r="C385" t="s">
+        <v>575</v>
+      </c>
+      <c r="D385" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B386" t="s">
+        <v>565</v>
+      </c>
+      <c r="C386" t="s">
+        <v>567</v>
+      </c>
+      <c r="D386" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B387" t="s">
+        <v>569</v>
+      </c>
+      <c r="C387" t="s">
+        <v>569</v>
+      </c>
+      <c r="D387" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C388" t="s">
+        <v>567</v>
+      </c>
+      <c r="D388" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B389" t="s">
+        <v>571</v>
+      </c>
+      <c r="C389" t="s">
+        <v>572</v>
+      </c>
+      <c r="D389" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B390" t="s">
+        <v>569</v>
+      </c>
+      <c r="C390" t="s">
+        <v>569</v>
+      </c>
+      <c r="D390" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C391" t="s">
+        <v>566</v>
+      </c>
+      <c r="D391" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B392" t="s">
+        <v>571</v>
+      </c>
+      <c r="C392" t="s">
+        <v>572</v>
+      </c>
+      <c r="D392" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B393" t="s">
+        <v>571</v>
+      </c>
+      <c r="C393" t="s">
+        <v>572</v>
+      </c>
+      <c r="D393" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B394" t="s">
+        <v>570</v>
+      </c>
+      <c r="C394" t="s">
+        <v>570</v>
+      </c>
+      <c r="D394" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B395" t="s">
+        <v>569</v>
+      </c>
+      <c r="C395" t="s">
+        <v>569</v>
+      </c>
+      <c r="D395" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B396" t="s">
+        <v>566</v>
+      </c>
+      <c r="C396" t="s">
+        <v>566</v>
+      </c>
+      <c r="D396" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B397" t="s">
+        <v>566</v>
+      </c>
+      <c r="C397" t="s">
+        <v>566</v>
+      </c>
+      <c r="D397" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B398" t="s">
+        <v>573</v>
+      </c>
+      <c r="C398" t="s">
+        <v>573</v>
+      </c>
+      <c r="D398" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B399" t="s">
+        <v>569</v>
+      </c>
+      <c r="C399" t="s">
+        <v>569</v>
+      </c>
+      <c r="D399" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B400" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B401" t="s">
+        <v>574</v>
+      </c>
+      <c r="C401" t="s">
+        <v>567</v>
+      </c>
+      <c r="D401" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B402" t="s">
+        <v>570</v>
+      </c>
+      <c r="C402" t="s">
+        <v>570</v>
+      </c>
+      <c r="D402" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B403" t="s">
+        <v>572</v>
+      </c>
+      <c r="C403" t="s">
+        <v>572</v>
+      </c>
+      <c r="D403" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B404" t="s">
+        <v>569</v>
+      </c>
+      <c r="C404" t="s">
+        <v>569</v>
+      </c>
+      <c r="D404" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B405" t="s">
+        <v>578</v>
+      </c>
+      <c r="C405" t="s">
+        <v>578</v>
+      </c>
+      <c r="D405" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B406" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B407" t="s">
+        <v>574</v>
+      </c>
+      <c r="C407" t="s">
+        <v>575</v>
+      </c>
+      <c r="D407" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B408" t="s">
+        <v>569</v>
+      </c>
+      <c r="C408" t="s">
+        <v>569</v>
+      </c>
+      <c r="D408" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B409" t="s">
+        <v>569</v>
+      </c>
+      <c r="C409" t="s">
+        <v>569</v>
+      </c>
+      <c r="D409" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B410" t="s">
+        <v>566</v>
+      </c>
+      <c r="C410" t="s">
+        <v>567</v>
+      </c>
+      <c r="D410" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B411" t="s">
+        <v>569</v>
+      </c>
+      <c r="C411" t="s">
+        <v>569</v>
+      </c>
+      <c r="D411" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B412" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C413" t="s">
+        <v>564</v>
+      </c>
+      <c r="D413" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B414" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B415" t="s">
+        <v>569</v>
+      </c>
+      <c r="C415" t="s">
+        <v>569</v>
+      </c>
+      <c r="D415" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B416" t="s">
+        <v>570</v>
+      </c>
+      <c r="C416" t="s">
+        <v>570</v>
+      </c>
+      <c r="D416" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B417" t="s">
+        <v>569</v>
+      </c>
+      <c r="C417" t="s">
+        <v>569</v>
+      </c>
+      <c r="D417" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B418" t="s">
+        <v>565</v>
+      </c>
+      <c r="C418" t="s">
+        <v>567</v>
+      </c>
+      <c r="D418" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B419" t="s">
+        <v>574</v>
+      </c>
+      <c r="C419" t="s">
+        <v>567</v>
+      </c>
+      <c r="D419" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B420" t="s">
+        <v>577</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D420" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B422" t="s">
+        <v>569</v>
+      </c>
+      <c r="C422" t="s">
+        <v>569</v>
+      </c>
+      <c r="D422" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B423" t="s">
+        <v>565</v>
+      </c>
+      <c r="C423" t="s">
+        <v>566</v>
+      </c>
+      <c r="D423" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B424" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B425" t="s">
+        <v>569</v>
+      </c>
+      <c r="C425" t="s">
+        <v>569</v>
+      </c>
+      <c r="D425" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B426" t="s">
+        <v>569</v>
+      </c>
+      <c r="C426" t="s">
+        <v>569</v>
+      </c>
+      <c r="D426" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B427" t="s">
+        <v>570</v>
+      </c>
+      <c r="C427" t="s">
+        <v>570</v>
+      </c>
+      <c r="D427" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B428" t="s">
+        <v>570</v>
+      </c>
+      <c r="C428" t="s">
+        <v>570</v>
+      </c>
+      <c r="D428" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B429" t="s">
+        <v>570</v>
+      </c>
+      <c r="C429" t="s">
+        <v>570</v>
+      </c>
+      <c r="D429" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B430" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D430" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B431" t="s">
+        <v>574</v>
+      </c>
+      <c r="C431" t="s">
+        <v>567</v>
+      </c>
+      <c r="D431" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B432" t="s">
+        <v>570</v>
+      </c>
+      <c r="C432" t="s">
+        <v>570</v>
+      </c>
+      <c r="D432" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B433" t="s">
+        <v>573</v>
+      </c>
+      <c r="C433" t="s">
+        <v>573</v>
+      </c>
+      <c r="D433" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B435" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B436" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D436" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B437" t="s">
+        <v>574</v>
+      </c>
+      <c r="C437" t="s">
+        <v>567</v>
+      </c>
+      <c r="D437" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B438" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B439" t="s">
+        <v>570</v>
+      </c>
+      <c r="C439" t="s">
+        <v>570</v>
+      </c>
+      <c r="D439" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B440" t="s">
+        <v>570</v>
+      </c>
+      <c r="C440" t="s">
+        <v>570</v>
+      </c>
+      <c r="D440" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B441" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B442" t="s">
+        <v>574</v>
+      </c>
+      <c r="C442" t="s">
+        <v>567</v>
+      </c>
+      <c r="D442" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B443" t="s">
+        <v>574</v>
+      </c>
+      <c r="C443" t="s">
+        <v>567</v>
+      </c>
+      <c r="D443" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B444" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D444" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B445" t="s">
+        <v>569</v>
+      </c>
+      <c r="C445" t="s">
+        <v>569</v>
+      </c>
+      <c r="D445" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C446" t="s">
+        <v>564</v>
+      </c>
+      <c r="D446" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B447" t="s">
+        <v>565</v>
+      </c>
+      <c r="C447" t="s">
+        <v>566</v>
+      </c>
+      <c r="D447" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B448" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B449" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B450" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B451" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B452" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D452" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B453" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B454" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D454" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B455" t="s">
+        <v>570</v>
+      </c>
+      <c r="C455" t="s">
+        <v>570</v>
+      </c>
+      <c r="D455" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B456" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B457" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B458" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D458" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B459" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B460" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D460" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B461" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C462" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D462" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C463" t="s">
+        <v>564</v>
+      </c>
+      <c r="D463" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C464" t="s">
+        <v>564</v>
+      </c>
+      <c r="D464" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B465" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B466" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D466" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B467" t="s">
+        <v>570</v>
+      </c>
+      <c r="C467" t="s">
+        <v>570</v>
+      </c>
+      <c r="D467" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B468" t="s">
+        <v>569</v>
+      </c>
+      <c r="C468" t="s">
+        <v>569</v>
+      </c>
+      <c r="D468" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B470" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B471" t="s">
+        <v>574</v>
+      </c>
+      <c r="C471" t="s">
+        <v>567</v>
+      </c>
+      <c r="D471" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B472" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D472" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B473" t="s">
+        <v>570</v>
+      </c>
+      <c r="C473" t="s">
+        <v>570</v>
+      </c>
+      <c r="D473" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B474" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B475" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B476" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D476" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B477" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B478" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B479" t="s">
+        <v>570</v>
+      </c>
+      <c r="C479" t="s">
+        <v>570</v>
+      </c>
+      <c r="D479" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B480" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B481" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B482" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B483" t="s">
+        <v>570</v>
+      </c>
+      <c r="C483" t="s">
+        <v>570</v>
+      </c>
+      <c r="D483" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B484" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B485" t="s">
+        <v>578</v>
+      </c>
+      <c r="C485" t="s">
+        <v>578</v>
+      </c>
+      <c r="D485" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B486" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D486" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B487" t="s">
+        <v>570</v>
+      </c>
+      <c r="C487" t="s">
+        <v>570</v>
+      </c>
+      <c r="D487" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B488" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B489" t="s">
+        <v>570</v>
+      </c>
+      <c r="C489" t="s">
+        <v>570</v>
+      </c>
+      <c r="D489" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B490" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D490" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B491" t="s">
+        <v>570</v>
+      </c>
+      <c r="C491" t="s">
+        <v>570</v>
+      </c>
+      <c r="D491" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B492" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B493" t="s">
+        <v>570</v>
+      </c>
+      <c r="C493" t="s">
+        <v>570</v>
+      </c>
+      <c r="D493" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B494" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D494" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B495" t="s">
+        <v>570</v>
+      </c>
+      <c r="C495" t="s">
+        <v>570</v>
+      </c>
+      <c r="D495" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B496" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B497" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B498" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B499" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B500" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B501" t="s">
+        <v>574</v>
+      </c>
+      <c r="C501" t="s">
+        <v>567</v>
+      </c>
+      <c r="D501" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B502" t="s">
+        <v>574</v>
+      </c>
+      <c r="C502" t="s">
+        <v>567</v>
+      </c>
+      <c r="D502" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B503" t="s">
+        <v>574</v>
+      </c>
+      <c r="C503" t="s">
+        <v>567</v>
+      </c>
+      <c r="D503" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B504" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D504" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B505" t="s">
+        <v>570</v>
+      </c>
+      <c r="C505" t="s">
+        <v>570</v>
+      </c>
+      <c r="D505" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B506" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D506" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B507" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B508" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B509" t="s">
+        <v>570</v>
+      </c>
+      <c r="C509" t="s">
+        <v>570</v>
+      </c>
+      <c r="D509" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B510" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B511" t="s">
+        <v>570</v>
+      </c>
+      <c r="C511" t="s">
+        <v>570</v>
+      </c>
+      <c r="D511" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B512" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D512" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B513" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C514" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D514" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B515" t="s">
+        <v>570</v>
+      </c>
+      <c r="C515" t="s">
+        <v>570</v>
+      </c>
+      <c r="D515" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B516" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D516" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B517" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B518" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D518" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B519" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B520" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B521" t="s">
+        <v>570</v>
+      </c>
+      <c r="C521" t="s">
+        <v>570</v>
+      </c>
+      <c r="D521" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B522" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B523" t="s">
+        <v>570</v>
+      </c>
+      <c r="C523" t="s">
+        <v>570</v>
+      </c>
+      <c r="D523" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B524" t="s">
+        <v>570</v>
+      </c>
+      <c r="C524" t="s">
+        <v>570</v>
+      </c>
+      <c r="D524" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B525" t="s">
+        <v>578</v>
+      </c>
+      <c r="C525" t="s">
+        <v>578</v>
+      </c>
+      <c r="D525" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B526" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D526" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B527" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D527" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B528" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B529" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B530" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B531" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B532" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B533" t="s">
+        <v>570</v>
+      </c>
+      <c r="C533" t="s">
+        <v>570</v>
+      </c>
+      <c r="D533" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B534" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B535" t="s">
+        <v>570</v>
+      </c>
+      <c r="C535" t="s">
+        <v>570</v>
+      </c>
+      <c r="D535" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C536" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D536" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B537" t="s">
+        <v>570</v>
+      </c>
+      <c r="C537" t="s">
+        <v>570</v>
+      </c>
+      <c r="D537" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B538" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D538" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B539" t="s">
+        <v>570</v>
+      </c>
+      <c r="C539" t="s">
+        <v>570</v>
+      </c>
+      <c r="D539" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B540" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D540" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B541" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D541" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B542" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D542" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B543" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D543" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B544" t="s">
+        <v>581</v>
+      </c>
+      <c r="C544" t="s">
+        <v>567</v>
+      </c>
+      <c r="D544" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B545" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D545" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B546" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D546" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B547" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D547" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B548" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D548" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B549" t="s">
+        <v>570</v>
+      </c>
+      <c r="C549" t="s">
+        <v>570</v>
+      </c>
+      <c r="D549" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B550" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D550" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B551" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B552" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D552" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B553" t="s">
+        <v>570</v>
+      </c>
+      <c r="C553" t="s">
+        <v>570</v>
+      </c>
+      <c r="D553" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B554" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D554" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B555" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D555" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B556" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D556" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B557" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D557" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B558" t="s">
+        <v>572</v>
+      </c>
+      <c r="C558" t="s">
+        <v>572</v>
+      </c>
+      <c r="D558" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B559" t="s">
+        <v>570</v>
+      </c>
+      <c r="C559" t="s">
+        <v>570</v>
+      </c>
+      <c r="D559" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B560" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D560" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.35">
+        <v>583</v>
+      </c>
+      <c r="B561" t="s">
+        <v>577</v>
+      </c>
+      <c r="C561" t="s">
+        <v>578</v>
+      </c>
+      <c r="D561" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
-        <v>561</v>
+        <v>584</v>
+      </c>
+      <c r="B562" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/constants/categorizedItems.xlsx
+++ b/src/constants/categorizedItems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="586">
   <si>
     <t>name</t>
   </si>
@@ -1774,6 +1774,9 @@
   </si>
   <si>
     <t>Tamales</t>
+  </si>
+  <si>
+    <t>Frozen Foods</t>
   </si>
 </sst>
 </file>
@@ -2637,7 +2640,7 @@
   <dimension ref="A1:D562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2906,7 +2909,7 @@
         <v>570</v>
       </c>
       <c r="C21" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D21" t="s">
         <v>570</v>
@@ -2920,7 +2923,7 @@
         <v>570</v>
       </c>
       <c r="C22" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D22" t="s">
         <v>570</v>
@@ -3191,7 +3194,7 @@
         <v>570</v>
       </c>
       <c r="C42" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D42" t="s">
         <v>570</v>
@@ -3247,7 +3250,7 @@
         <v>570</v>
       </c>
       <c r="C46" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D46" t="s">
         <v>570</v>
@@ -3261,7 +3264,7 @@
         <v>570</v>
       </c>
       <c r="C47" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D47" t="s">
         <v>570</v>
@@ -3278,7 +3281,7 @@
         <v>566</v>
       </c>
       <c r="D48" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -3370,7 +3373,7 @@
         <v>575</v>
       </c>
       <c r="D55" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -3384,7 +3387,7 @@
         <v>575</v>
       </c>
       <c r="D56" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -3580,7 +3583,7 @@
         <v>575</v>
       </c>
       <c r="D70" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -3792,7 +3795,7 @@
         <v>573</v>
       </c>
       <c r="C86" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D86" t="s">
         <v>573</v>
@@ -3873,7 +3876,7 @@
         <v>573</v>
       </c>
       <c r="C92" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D92" t="s">
         <v>573</v>
@@ -4032,7 +4035,7 @@
         <v>570</v>
       </c>
       <c r="C104" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D104" t="s">
         <v>570</v>
@@ -4191,7 +4194,7 @@
         <v>575</v>
       </c>
       <c r="D116" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -4205,7 +4208,7 @@
         <v>575</v>
       </c>
       <c r="D117" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -4370,7 +4373,7 @@
         <v>570</v>
       </c>
       <c r="C129" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D129" t="s">
         <v>570</v>
@@ -4384,7 +4387,7 @@
         <v>578</v>
       </c>
       <c r="C130" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D130" t="s">
         <v>567</v>
@@ -4401,7 +4404,7 @@
         <v>566</v>
       </c>
       <c r="D131" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -4426,7 +4429,7 @@
         <v>579</v>
       </c>
       <c r="C133" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="D133" t="s">
         <v>579</v>
@@ -4872,7 +4875,7 @@
         <v>570</v>
       </c>
       <c r="C167" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D167" t="s">
         <v>570</v>
@@ -4886,7 +4889,7 @@
         <v>570</v>
       </c>
       <c r="C168" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D168" t="s">
         <v>570</v>
@@ -4942,7 +4945,7 @@
         <v>570</v>
       </c>
       <c r="C172" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D172" t="s">
         <v>570</v>
@@ -4972,7 +4975,7 @@
         <v>570</v>
       </c>
       <c r="C175" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D175" t="s">
         <v>570</v>
@@ -5000,7 +5003,7 @@
         <v>570</v>
       </c>
       <c r="C177" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D177" t="s">
         <v>570</v>
@@ -5070,7 +5073,7 @@
         <v>573</v>
       </c>
       <c r="C182" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D182" t="s">
         <v>573</v>
@@ -5268,7 +5271,7 @@
         <v>579</v>
       </c>
       <c r="C197" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="D197" t="s">
         <v>579</v>
@@ -5511,7 +5514,7 @@
         <v>570</v>
       </c>
       <c r="C215" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D215" t="s">
         <v>567</v>
@@ -5620,7 +5623,7 @@
         <v>570</v>
       </c>
       <c r="C223" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D223" t="s">
         <v>570</v>
@@ -5634,7 +5637,7 @@
         <v>570</v>
       </c>
       <c r="C224" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D224" t="s">
         <v>570</v>
@@ -5676,7 +5679,7 @@
         <v>566</v>
       </c>
       <c r="D227" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
@@ -5714,8 +5717,8 @@
       <c r="B230" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C230" s="3" t="s">
-        <v>570</v>
+      <c r="C230" t="s">
+        <v>567</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>570</v>
@@ -5728,8 +5731,8 @@
       <c r="B231" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C231" s="3" t="s">
-        <v>570</v>
+      <c r="C231" t="s">
+        <v>567</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>570</v>
@@ -5756,8 +5759,8 @@
       <c r="B233" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C233" s="3" t="s">
-        <v>570</v>
+      <c r="C233" t="s">
+        <v>567</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>570</v>
@@ -5922,7 +5925,7 @@
         <v>570</v>
       </c>
       <c r="C245" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D245" t="s">
         <v>570</v>
@@ -5936,7 +5939,7 @@
         <v>570</v>
       </c>
       <c r="C246" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D246" t="s">
         <v>570</v>
@@ -5964,7 +5967,7 @@
         <v>579</v>
       </c>
       <c r="C248" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="D248" t="s">
         <v>579</v>
@@ -5978,7 +5981,7 @@
         <v>570</v>
       </c>
       <c r="C249" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D249" t="s">
         <v>570</v>
@@ -6098,7 +6101,7 @@
         <v>570</v>
       </c>
       <c r="C258" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D258" t="s">
         <v>570</v>
@@ -6112,7 +6115,7 @@
         <v>570</v>
       </c>
       <c r="C259" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D259" t="s">
         <v>570</v>
@@ -6154,7 +6157,7 @@
         <v>570</v>
       </c>
       <c r="C262" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D262" t="s">
         <v>570</v>
@@ -6168,7 +6171,7 @@
         <v>570</v>
       </c>
       <c r="C263" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D263" t="s">
         <v>570</v>
@@ -6182,7 +6185,7 @@
         <v>570</v>
       </c>
       <c r="C264" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D264" t="s">
         <v>570</v>
@@ -6238,7 +6241,7 @@
         <v>570</v>
       </c>
       <c r="C268" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D268" t="s">
         <v>570</v>
@@ -6364,7 +6367,7 @@
         <v>570</v>
       </c>
       <c r="C277" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D277" t="s">
         <v>570</v>
@@ -6551,7 +6554,7 @@
         <v>570</v>
       </c>
       <c r="C291" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D291" t="s">
         <v>570</v>
@@ -6593,7 +6596,7 @@
         <v>570</v>
       </c>
       <c r="C294" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D294" t="s">
         <v>570</v>
@@ -6607,7 +6610,7 @@
         <v>570</v>
       </c>
       <c r="C295" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D295" t="s">
         <v>570</v>
@@ -6663,7 +6666,7 @@
         <v>570</v>
       </c>
       <c r="C299" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D299" t="s">
         <v>570</v>
@@ -6719,7 +6722,7 @@
         <v>573</v>
       </c>
       <c r="C303" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D303" t="s">
         <v>573</v>
@@ -6733,7 +6736,7 @@
         <v>570</v>
       </c>
       <c r="C304" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D304" t="s">
         <v>570</v>
@@ -6747,7 +6750,7 @@
         <v>570</v>
       </c>
       <c r="C305" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D305" t="s">
         <v>570</v>
@@ -6803,7 +6806,7 @@
         <v>574</v>
       </c>
       <c r="C309" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D309" t="s">
         <v>567</v>
@@ -6915,7 +6918,7 @@
         <v>579</v>
       </c>
       <c r="C317" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D317" t="s">
         <v>579</v>
@@ -6943,7 +6946,7 @@
         <v>579</v>
       </c>
       <c r="C319" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D319" t="s">
         <v>579</v>
@@ -6971,7 +6974,7 @@
         <v>570</v>
       </c>
       <c r="C321" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D321" t="s">
         <v>570</v>
@@ -7027,7 +7030,7 @@
         <v>570</v>
       </c>
       <c r="C325" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D325" t="s">
         <v>570</v>
@@ -7041,7 +7044,7 @@
         <v>570</v>
       </c>
       <c r="C326" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D326" t="s">
         <v>570</v>
@@ -7055,7 +7058,7 @@
         <v>570</v>
       </c>
       <c r="C327" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D327" t="s">
         <v>570</v>
@@ -7111,7 +7114,7 @@
         <v>570</v>
       </c>
       <c r="C331" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D331" t="s">
         <v>570</v>
@@ -7125,7 +7128,7 @@
         <v>570</v>
       </c>
       <c r="C332" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D332" t="s">
         <v>570</v>
@@ -7139,7 +7142,7 @@
         <v>570</v>
       </c>
       <c r="C333" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D333" t="s">
         <v>570</v>
@@ -7153,7 +7156,7 @@
         <v>570</v>
       </c>
       <c r="C334" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D334" t="s">
         <v>570</v>
@@ -7237,7 +7240,7 @@
         <v>570</v>
       </c>
       <c r="C340" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D340" t="s">
         <v>570</v>
@@ -7265,7 +7268,7 @@
         <v>570</v>
       </c>
       <c r="C342" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D342" t="s">
         <v>570</v>
@@ -7289,8 +7292,8 @@
       <c r="B344" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C344" s="3" t="s">
-        <v>570</v>
+      <c r="C344" t="s">
+        <v>567</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>570</v>
@@ -7622,7 +7625,7 @@
         <v>570</v>
       </c>
       <c r="C369" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D369" t="s">
         <v>570</v>
@@ -7650,7 +7653,7 @@
         <v>570</v>
       </c>
       <c r="C371" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D371" t="s">
         <v>570</v>
@@ -7678,7 +7681,7 @@
         <v>579</v>
       </c>
       <c r="C373" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D373" t="s">
         <v>579</v>
@@ -7692,7 +7695,7 @@
         <v>570</v>
       </c>
       <c r="C374" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D374" t="s">
         <v>570</v>
@@ -7705,8 +7708,8 @@
       <c r="B375" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C375" s="1" t="s">
-        <v>579</v>
+      <c r="C375" t="s">
+        <v>585</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>579</v>
@@ -7720,7 +7723,7 @@
         <v>579</v>
       </c>
       <c r="C376" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D376" t="s">
         <v>579</v>
@@ -7734,7 +7737,7 @@
         <v>579</v>
       </c>
       <c r="C377" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D377" t="s">
         <v>579</v>
@@ -7776,7 +7779,7 @@
         <v>570</v>
       </c>
       <c r="C380" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D380" t="s">
         <v>570</v>
@@ -7790,7 +7793,7 @@
         <v>570</v>
       </c>
       <c r="C381" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D381" t="s">
         <v>570</v>
@@ -7804,7 +7807,7 @@
         <v>570</v>
       </c>
       <c r="C382" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D382" t="s">
         <v>570</v>
@@ -7963,7 +7966,7 @@
         <v>570</v>
       </c>
       <c r="C394" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D394" t="s">
         <v>570</v>
@@ -8069,7 +8072,7 @@
         <v>570</v>
       </c>
       <c r="C402" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D402" t="s">
         <v>570</v>
@@ -8208,8 +8211,8 @@
       <c r="B412" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C412" s="1" t="s">
-        <v>579</v>
+      <c r="C412" t="s">
+        <v>585</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>579</v>
@@ -8256,7 +8259,7 @@
         <v>570</v>
       </c>
       <c r="C416" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D416" t="s">
         <v>570</v>
@@ -8401,7 +8404,7 @@
         <v>570</v>
       </c>
       <c r="C427" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D427" t="s">
         <v>570</v>
@@ -8415,7 +8418,7 @@
         <v>570</v>
       </c>
       <c r="C428" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D428" t="s">
         <v>570</v>
@@ -8429,7 +8432,7 @@
         <v>570</v>
       </c>
       <c r="C429" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D429" t="s">
         <v>570</v>
@@ -8442,8 +8445,8 @@
       <c r="B430" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C430" s="3" t="s">
-        <v>570</v>
+      <c r="C430" t="s">
+        <v>567</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>570</v>
@@ -8471,7 +8474,7 @@
         <v>570</v>
       </c>
       <c r="C432" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D432" t="s">
         <v>570</v>
@@ -8517,8 +8520,8 @@
       <c r="B436" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C436" s="3" t="s">
-        <v>570</v>
+      <c r="C436" t="s">
+        <v>567</v>
       </c>
       <c r="D436" s="4" t="s">
         <v>570</v>
@@ -8560,7 +8563,7 @@
         <v>570</v>
       </c>
       <c r="C439" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D439" t="s">
         <v>570</v>
@@ -8574,7 +8577,7 @@
         <v>570</v>
       </c>
       <c r="C440" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D440" t="s">
         <v>570</v>
@@ -8629,8 +8632,8 @@
       <c r="B444" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C444" s="3" t="s">
-        <v>570</v>
+      <c r="C444" t="s">
+        <v>567</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>570</v>
@@ -8738,8 +8741,8 @@
       <c r="B452" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C452" s="3" t="s">
-        <v>570</v>
+      <c r="C452" t="s">
+        <v>567</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>570</v>
@@ -8766,8 +8769,8 @@
       <c r="B454" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C454" s="3" t="s">
-        <v>570</v>
+      <c r="C454" t="s">
+        <v>567</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>570</v>
@@ -8781,7 +8784,7 @@
         <v>570</v>
       </c>
       <c r="C455" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D455" t="s">
         <v>570</v>
@@ -8925,8 +8928,8 @@
       <c r="B466" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C466" s="3" t="s">
-        <v>570</v>
+      <c r="C466" t="s">
+        <v>567</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>570</v>
@@ -8940,7 +8943,7 @@
         <v>570</v>
       </c>
       <c r="C467" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D467" t="s">
         <v>570</v>
@@ -9000,8 +9003,8 @@
       <c r="B472" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C472" s="3" t="s">
-        <v>570</v>
+      <c r="C472" t="s">
+        <v>567</v>
       </c>
       <c r="D472" s="4" t="s">
         <v>570</v>
@@ -9015,7 +9018,7 @@
         <v>570</v>
       </c>
       <c r="C473" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D473" t="s">
         <v>570</v>
@@ -9099,7 +9102,7 @@
         <v>570</v>
       </c>
       <c r="C479" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D479" t="s">
         <v>570</v>
@@ -9155,7 +9158,7 @@
         <v>570</v>
       </c>
       <c r="C483" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D483" t="s">
         <v>570</v>
@@ -9211,7 +9214,7 @@
         <v>570</v>
       </c>
       <c r="C487" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D487" t="s">
         <v>570</v>
@@ -9239,7 +9242,7 @@
         <v>570</v>
       </c>
       <c r="C489" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D489" t="s">
         <v>570</v>
@@ -9252,8 +9255,8 @@
       <c r="B490" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C490" s="3" t="s">
-        <v>570</v>
+      <c r="C490" t="s">
+        <v>567</v>
       </c>
       <c r="D490" s="4" t="s">
         <v>570</v>
@@ -9267,7 +9270,7 @@
         <v>570</v>
       </c>
       <c r="C491" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D491" t="s">
         <v>570</v>
@@ -9295,7 +9298,7 @@
         <v>570</v>
       </c>
       <c r="C493" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D493" t="s">
         <v>570</v>
@@ -9308,8 +9311,8 @@
       <c r="B494" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C494" s="3" t="s">
-        <v>570</v>
+      <c r="C494" t="s">
+        <v>567</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>570</v>
@@ -9323,7 +9326,7 @@
         <v>570</v>
       </c>
       <c r="C495" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D495" t="s">
         <v>570</v>
@@ -9378,8 +9381,8 @@
       <c r="B499" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C499" s="1" t="s">
-        <v>579</v>
+      <c r="C499" t="s">
+        <v>566</v>
       </c>
       <c r="D499" s="2" t="s">
         <v>579</v>
@@ -9463,7 +9466,7 @@
         <v>570</v>
       </c>
       <c r="C505" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D505" t="s">
         <v>570</v>
@@ -9519,7 +9522,7 @@
         <v>570</v>
       </c>
       <c r="C509" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D509" t="s">
         <v>570</v>
@@ -9547,7 +9550,7 @@
         <v>570</v>
       </c>
       <c r="C511" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D511" t="s">
         <v>570</v>
@@ -9560,8 +9563,8 @@
       <c r="B512" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C512" s="3" t="s">
-        <v>570</v>
+      <c r="C512" t="s">
+        <v>567</v>
       </c>
       <c r="D512" s="4" t="s">
         <v>570</v>
@@ -9600,7 +9603,7 @@
         <v>570</v>
       </c>
       <c r="C515" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D515" t="s">
         <v>570</v>
@@ -9678,7 +9681,7 @@
         <v>570</v>
       </c>
       <c r="C521" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D521" t="s">
         <v>570</v>
@@ -9706,7 +9709,7 @@
         <v>570</v>
       </c>
       <c r="C523" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D523" t="s">
         <v>570</v>
@@ -9720,7 +9723,7 @@
         <v>570</v>
       </c>
       <c r="C524" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D524" t="s">
         <v>570</v>
@@ -9747,8 +9750,8 @@
       <c r="B526" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C526" s="3" t="s">
-        <v>570</v>
+      <c r="C526" t="s">
+        <v>567</v>
       </c>
       <c r="D526" s="4" t="s">
         <v>570</v>
@@ -9846,7 +9849,7 @@
         <v>570</v>
       </c>
       <c r="C533" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D533" t="s">
         <v>570</v>
@@ -9874,7 +9877,7 @@
         <v>570</v>
       </c>
       <c r="C535" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D535" t="s">
         <v>570</v>
@@ -9899,7 +9902,7 @@
         <v>570</v>
       </c>
       <c r="C537" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D537" t="s">
         <v>570</v>
@@ -9912,8 +9915,8 @@
       <c r="B538" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C538" s="3" t="s">
-        <v>570</v>
+      <c r="C538" t="s">
+        <v>567</v>
       </c>
       <c r="D538" s="4" t="s">
         <v>570</v>
@@ -9927,7 +9930,7 @@
         <v>570</v>
       </c>
       <c r="C539" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D539" t="s">
         <v>570</v>
@@ -9940,8 +9943,8 @@
       <c r="B540" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C540" s="3" t="s">
-        <v>570</v>
+      <c r="C540" t="s">
+        <v>567</v>
       </c>
       <c r="D540" s="4" t="s">
         <v>570</v>
@@ -9954,8 +9957,8 @@
       <c r="B541" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C541" s="1" t="s">
-        <v>579</v>
+      <c r="C541" t="s">
+        <v>585</v>
       </c>
       <c r="D541" s="2" t="s">
         <v>579</v>
@@ -9982,8 +9985,8 @@
       <c r="B543" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C543" s="1" t="s">
-        <v>579</v>
+      <c r="C543" t="s">
+        <v>585</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>579</v>
@@ -10067,7 +10070,7 @@
         <v>570</v>
       </c>
       <c r="C549" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D549" t="s">
         <v>570</v>
@@ -10080,8 +10083,8 @@
       <c r="B550" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C550" s="3" t="s">
-        <v>570</v>
+      <c r="C550" t="s">
+        <v>567</v>
       </c>
       <c r="D550" s="4" t="s">
         <v>570</v>
@@ -10123,7 +10126,7 @@
         <v>570</v>
       </c>
       <c r="C553" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D553" t="s">
         <v>570</v>
@@ -10151,7 +10154,7 @@
         <v>573</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D555" s="2" t="s">
         <v>573</v>
@@ -10164,8 +10167,8 @@
       <c r="B556" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C556" s="3" t="s">
-        <v>570</v>
+      <c r="C556" t="s">
+        <v>567</v>
       </c>
       <c r="D556" s="4" t="s">
         <v>570</v>
@@ -10207,7 +10210,7 @@
         <v>570</v>
       </c>
       <c r="C559" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D559" t="s">
         <v>570</v>
